--- a/data-feo.xlsx
+++ b/data-feo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidar\Documents\GitHub\APC-PRJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.alavi\Documents\GitHub\APC-PRJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE582E1B-E655-480B-B13C-DD89A1FC4481}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8574F-7DD3-42F9-A35B-4EA2F4D82744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -609,7 +609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6E58C0-F34D-4963-88F4-565492383944}">
   <dimension ref="A1:AA171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
